--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,17 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -42,9 +47,6 @@
   </si>
   <si>
     <t>Concepts 2</t>
-  </si>
-  <si>
-    <t>Concepts 3</t>
   </si>
   <si>
     <t>Assign 1</t>
@@ -80,6 +82,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -100,12 +103,14 @@
       <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,22 +196,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F16"/>
+  <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.55"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.25"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="19.6020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.2448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="22.9387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.2142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.4795918367347"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -269,7 +281,8 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>10</v>
+        <f aca="false">IF($D$11&gt;0,(IF($D$11&gt;(AVERAGE($D$5:$D$6)),10,15)),15)</f>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="n">
         <f aca="false">33/50</f>
@@ -277,11 +290,11 @@
       </c>
       <c r="E5" s="3" t="n">
         <f aca="false">C5*D5</f>
-        <v>6.6</v>
+        <v>9.9</v>
       </c>
       <c r="F5" s="3" t="n">
         <f aca="false">C5-E5</f>
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,22 +302,41 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <f aca="false">IF($D$11&gt;0,(IF($D$11&gt;(AVERAGE($D$5:$D$6)),10,15)),15)</f>
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <f aca="false">C6*D6</f>
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <f aca="false">C6-E6</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+        <f aca="false">20/3</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <f aca="false">60/100</f>
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <f aca="false">C7*D7</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <f aca="false">C7-E7</f>
+        <v>2.66666666666667</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
@@ -315,16 +347,15 @@
         <v>6.66666666666667</v>
       </c>
       <c r="D8" s="3" t="n">
-        <f aca="false">60/100</f>
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="E8" s="3" t="n">
         <f aca="false">C8*D8</f>
-        <v>4</v>
+        <v>3.86666666666667</v>
       </c>
       <c r="F8" s="3" t="n">
         <f aca="false">C8-E8</f>
-        <v>2.66666666666667</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,16 +366,14 @@
         <f aca="false">20/3</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>0.58</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3" t="n">
-        <f aca="false">C9*D9</f>
-        <v>3.86666666666667</v>
+        <f aca="false">IF(D9&gt;0,C9*D9,0)</f>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
-        <f aca="false">C9-E9</f>
-        <v>2.8</v>
+        <f aca="false">IF(D9&gt;0,C9-E9,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,52 +381,68 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="n">
-        <f aca="false">20/3</f>
-        <v>6.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3" t="n">
+        <f aca="false">IF(D10&gt;0,C10*D10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <f aca="false">IF(D10&gt;0,C10-E10,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3" t="n">
+        <f aca="false">IF($D$11&gt;0,(IF($D$11&gt;(AVERAGE($D$5:$D$6)),30,20)),20)</f>
         <v>20</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3" t="n">
+        <f aca="false">IF(D11&gt;0,C11*D11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <f aca="false">IF(D11&gt;0,C11-E11,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="n">
+        <f aca="false">SUM(C3:C11)</f>
+        <v>100</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">SUM(D3:D11)/COUNT(D3:D11)</f>
+        <v>0.654573643410853</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <f aca="false">SUM(E3:E11)</f>
+        <v>34.2038759689922</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <f aca="false">SUM(F3:F11)</f>
+        <v>19.1294573643411</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="n">
-        <f aca="false">SUM(C3:C12)</f>
-        <v>100</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <f aca="false">SUM(D3:D12)/COUNT(D3:D12)</f>
-        <v>0.665488372093023</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <f aca="false">SUM(E3:E12)</f>
-        <v>21.9038759689922</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <f aca="false">SUM(F3:F12)</f>
-        <v>11.4294573643411</v>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="n">
+        <f aca="false">AVERAGE(D3,D4,D5,D6,D11)</f>
+        <v>0.686860465116279</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,24 +451,14 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="n">
-        <f aca="false">AVERAGE(D3,D4,D5,D6,D7,D12)</f>
-        <v>0.715813953488372</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="n">
-        <f aca="false">AVERAGE(D8:D11)</f>
+        <f aca="false">AVERAGE(D7:D10)</f>
         <v>0.59</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="67" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -77,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -111,6 +111,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,6 +182,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,12 +214,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="22.9387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.2142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.9387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.6428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="24.8826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.5459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="14.6428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,14 +393,16 @@
       <c r="C10" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E10" s="3" t="n">
         <f aca="false">IF(D10&gt;0,C10*D10,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="n">
         <f aca="false">IF(D10&gt;0,C10-E10,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,17 +429,17 @@
         <f aca="false">SUM(C3:C11)</f>
         <v>100</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <f aca="false">SUM(D3:D11)/COUNT(D3:D11)</f>
-        <v>0.654573643410853</v>
+      <c r="D12" s="4" t="n">
+        <f aca="false">100-F12</f>
+        <v>70.8705426356589</v>
       </c>
       <c r="E12" s="3" t="n">
         <f aca="false">SUM(E3:E11)</f>
-        <v>34.2038759689922</v>
+        <v>44.2038759689923</v>
       </c>
       <c r="F12" s="3" t="n">
         <f aca="false">SUM(F3:F11)</f>
-        <v>19.1294573643411</v>
+        <v>29.1294573643411</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,13 +464,13 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="n">
         <f aca="false">AVERAGE(D7:D10)</f>
-        <v>0.59</v>
+        <v>0.56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="67" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -22,52 +22,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Worth</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Actual Received</t>
-  </si>
-  <si>
-    <t>Lost</t>
-  </si>
-  <si>
-    <t>Prereq (DS)</t>
-  </si>
-  <si>
-    <t>Prereq (AL)</t>
-  </si>
-  <si>
-    <t>Concepts 1</t>
-  </si>
-  <si>
-    <t>Concepts 2</t>
-  </si>
-  <si>
-    <t>Assign 1</t>
-  </si>
-  <si>
-    <t>Assign 2</t>
-  </si>
-  <si>
-    <t>Assign 3</t>
-  </si>
-  <si>
-    <t>DPL</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Tests</t>
-  </si>
-  <si>
-    <t>Assignments</t>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prereq (DS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prereq (AL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepts 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepts 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assignments</t>
   </si>
 </sst>
 </file>
@@ -75,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -111,12 +111,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="15"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,10 +176,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,12 +204,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.6428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="24.8826530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.5459183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="14.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="26.9540816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="15.8112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +419,7 @@
         <f aca="false">SUM(C3:C11)</f>
         <v>100</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="2" t="n">
         <f aca="false">100-F12</f>
         <v>70.8705426356589</v>
       </c>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -199,17 +199,18 @@
   <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.4387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="26.9540816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.0102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.9540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="15.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.9387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="23.3265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,7 +283,7 @@
       </c>
       <c r="C5" s="3" t="n">
         <f aca="false">IF($D$11&gt;0,(IF($D$11&gt;(AVERAGE($D$5:$D$6)),10,15)),15)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="n">
         <f aca="false">33/50</f>
@@ -290,11 +291,11 @@
       </c>
       <c r="E5" s="3" t="n">
         <f aca="false">C5*D5</f>
-        <v>9.9</v>
+        <v>6.6</v>
       </c>
       <c r="F5" s="3" t="n">
         <f aca="false">C5-E5</f>
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,18 +304,18 @@
       </c>
       <c r="C6" s="3" t="n">
         <f aca="false">IF($D$11&gt;0,(IF($D$11&gt;(AVERAGE($D$5:$D$6)),10,15)),15)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0.6</v>
       </c>
       <c r="E6" s="3" t="n">
         <f aca="false">C6*D6</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3" t="n">
         <f aca="false">C6-E6</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,10 +367,12 @@
         <f aca="false">20/3</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="3" t="n">
         <f aca="false">IF(D9&gt;0,C9*D9,0)</f>
-        <v>0</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="F9" s="3" t="n">
         <f aca="false">IF(D9&gt;0,C9-E9,0)</f>
@@ -384,15 +387,15 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E10" s="3" t="n">
         <f aca="false">IF(D10&gt;0,C10*D10,0)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="n">
         <f aca="false">IF(D10&gt;0,C10-E10,0)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,16 +404,19 @@
       </c>
       <c r="C11" s="3" t="n">
         <f aca="false">IF($D$11&gt;0,(IF($D$11&gt;(AVERAGE($D$5:$D$6)),30,20)),20)</f>
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <f aca="false">12/19</f>
+        <v>0.631578947368421</v>
+      </c>
       <c r="E11" s="3" t="n">
         <f aca="false">IF(D11&gt;0,C11*D11,0)</f>
-        <v>0</v>
+        <v>18.9473684210526</v>
       </c>
       <c r="F11" s="3" t="n">
         <f aca="false">IF(D11&gt;0,C11-E11,0)</f>
-        <v>0</v>
+        <v>11.0526315789474</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,15 +427,15 @@
       </c>
       <c r="D12" s="2" t="n">
         <f aca="false">100-F12</f>
-        <v>70.8705426356589</v>
+        <v>71.5179110567115</v>
       </c>
       <c r="E12" s="3" t="n">
         <f aca="false">SUM(E3:E11)</f>
-        <v>44.2038759689923</v>
+        <v>71.5179110567116</v>
       </c>
       <c r="F12" s="3" t="n">
         <f aca="false">SUM(F3:F11)</f>
-        <v>29.1294573643411</v>
+        <v>28.4820889432885</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,7 +450,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="n">
         <f aca="false">AVERAGE(D3,D4,D5,D6,D11)</f>
-        <v>0.686860465116279</v>
+        <v>0.675804161566708</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,7 +460,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="n">
         <f aca="false">AVERAGE(D7:D10)</f>
-        <v>0.56</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
